--- a/Romidepsin.xlsx
+++ b/Romidepsin.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7813475306907495</v>
+        <v>0.8979257860468286</v>
       </c>
       <c r="C2" t="n">
         <v>31</v>
@@ -496,19 +496,19 @@
         <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>63.37506060084763</v>
+        <v>93.18955618970213</v>
       </c>
       <c r="F2" t="n">
-        <v>60.92003516374344</v>
+        <v>97.72694678738168</v>
       </c>
       <c r="G2" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="H2" t="n">
         <v>255</v>
       </c>
       <c r="I2" t="n">
-        <v>1.040299146750416</v>
+        <v>0.9535707320566225</v>
       </c>
     </row>
     <row r="3">
@@ -516,28 +516,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8720925573349927</v>
+        <v>0.9641889917097796</v>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>51.6762365423623</v>
+        <v>99.77296278850683</v>
       </c>
       <c r="F3" t="n">
-        <v>54.98022304832714</v>
+        <v>93.17208863743517</v>
       </c>
       <c r="G3" t="n">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="H3" t="n">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="I3" t="n">
-        <v>0.939905909383804</v>
+        <v>1.070846046789377</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.934642491332307</v>
+        <v>0.9347767877545795</v>
       </c>
       <c r="C4" t="n">
         <v>31</v>
@@ -554,19 +554,19 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>53.49489322191272</v>
+        <v>89.88531360234019</v>
       </c>
       <c r="F4" t="n">
-        <v>55.42938388625593</v>
+        <v>118.4298751614292</v>
       </c>
       <c r="G4" t="n">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="H4" t="n">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9650999067874741</v>
+        <v>0.758974992414874</v>
       </c>
     </row>
     <row r="5">
@@ -574,28 +574,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8060175628316242</v>
+        <v>0.9498736359596298</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>53.10889292196007</v>
+        <v>90.5966548729495</v>
       </c>
       <c r="F5" t="n">
-        <v>47.36904445035933</v>
+        <v>73.32097172954961</v>
       </c>
       <c r="G5" t="n">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H5" t="n">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="I5" t="n">
-        <v>1.121172984133464</v>
+        <v>1.235617214773457</v>
       </c>
     </row>
     <row r="6">
@@ -603,28 +603,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9382955431053102</v>
+        <v>0.935500765605964</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>67.90355276907</v>
+        <v>92.14634146341463</v>
       </c>
       <c r="F6" t="n">
-        <v>59.19701173959445</v>
+        <v>79.44606840105233</v>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H6" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147077373901495</v>
+        <v>1.159860309238337</v>
       </c>
     </row>
     <row r="7">
@@ -632,28 +632,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9390878085634233</v>
+        <v>0.9484353509205384</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>73.35168492580779</v>
+        <v>87.80545015522594</v>
       </c>
       <c r="F7" t="n">
-        <v>66.87486263736264</v>
+        <v>100.9868920317351</v>
       </c>
       <c r="G7" t="n">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="I7" t="n">
-        <v>1.096849878011212</v>
+        <v>0.8694737345479761</v>
       </c>
     </row>
     <row r="8">
@@ -661,28 +661,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9195882677614839</v>
+        <v>0.9624072795549702</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>59.58537989255564</v>
+        <v>105.3024645257655</v>
       </c>
       <c r="F8" t="n">
-        <v>56.11746490503716</v>
+        <v>157.8315160567588</v>
       </c>
       <c r="G8" t="n">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="H8" t="n">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="I8" t="n">
-        <v>1.061797427830836</v>
+        <v>0.6671827475058721</v>
       </c>
     </row>
     <row r="9">
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8730752543786733</v>
+        <v>0.9622092742984482</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>64.87495110183858</v>
+        <v>96.67351351351351</v>
       </c>
       <c r="F9" t="n">
-        <v>46.40200328898191</v>
+        <v>138.1414054054054</v>
       </c>
       <c r="G9" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="I9" t="n">
-        <v>1.398106687286991</v>
+        <v>0.6998156217522508</v>
       </c>
     </row>
     <row r="10">
@@ -719,28 +719,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6383633960125876</v>
+        <v>0.8950373427542362</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>38.73684210526316</v>
+        <v>83.09449423815622</v>
       </c>
       <c r="F10" t="n">
-        <v>44.57142857142857</v>
+        <v>64.43232205367562</v>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="H10" t="n">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8690958164642375</v>
+        <v>1.289639913472837</v>
       </c>
     </row>
     <row r="11">
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.962919900038254</v>
+        <v>0.9506902636078822</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
         <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>85.02439024390245</v>
+        <v>109.1929404726294</v>
       </c>
       <c r="F11" t="n">
-        <v>68.15233415233415</v>
+        <v>106.0544584081388</v>
       </c>
       <c r="G11" t="n">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="H11" t="n">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="I11" t="n">
-        <v>1.24756387732599</v>
+        <v>1.029593117645393</v>
       </c>
     </row>
     <row r="12">
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.760920887168301</v>
+        <v>0.9600847584583385</v>
       </c>
       <c r="C12" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>56.45277955271565</v>
+        <v>118.4969566774078</v>
       </c>
       <c r="F12" t="n">
-        <v>41.37490508731967</v>
+        <v>187.9629497046716</v>
       </c>
       <c r="G12" t="n">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="H12" t="n">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="I12" t="n">
-        <v>1.364420762623501</v>
+        <v>0.6304272031461035</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9314198071472847</v>
+        <v>0.920462936639016</v>
       </c>
       <c r="C13" t="n">
         <v>31</v>
@@ -815,19 +815,19 @@
         <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>65.48561972152477</v>
+        <v>86.00452183952279</v>
       </c>
       <c r="F13" t="n">
-        <v>55.51715599575522</v>
+        <v>56.96402105037053</v>
       </c>
       <c r="G13" t="n">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H13" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I13" t="n">
-        <v>1.179556455062859</v>
+        <v>1.509804263352005</v>
       </c>
     </row>
     <row r="14">
@@ -835,28 +835,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.920885494356571</v>
+        <v>0.9369619297344106</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>87.0546365914787</v>
+        <v>109.2611940298507</v>
       </c>
       <c r="F14" t="n">
-        <v>52.87520085698982</v>
+        <v>113.3306902985075</v>
       </c>
       <c r="G14" t="n">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="H14" t="n">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="I14" t="n">
-        <v>1.646417132805474</v>
+        <v>0.9640918425720529</v>
       </c>
     </row>
     <row r="15">
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9397550970197479</v>
+        <v>0.9681057441907323</v>
       </c>
       <c r="C15" t="n">
         <v>31</v>
@@ -873,19 +873,19 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>84.24923826934796</v>
+        <v>112.2733727810651</v>
       </c>
       <c r="F15" t="n">
-        <v>85.90094483389211</v>
+        <v>201.13923194045</v>
       </c>
       <c r="G15" t="n">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="H15" t="n">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9807719627794772</v>
+        <v>0.558187339674764</v>
       </c>
     </row>
     <row r="16">
@@ -893,28 +893,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8355134367635494</v>
+        <v>0.9134064301464108</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>65.40594400772308</v>
+        <v>82.51251885369533</v>
       </c>
       <c r="F16" t="n">
-        <v>52.3861446306103</v>
+        <v>70.08743882544861</v>
       </c>
       <c r="G16" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H16" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248535170299687</v>
+        <v>1.177279698566117</v>
       </c>
     </row>
     <row r="17">
@@ -922,28 +922,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8268813765515366</v>
+        <v>0.9524393418427423</v>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>55.77430555555556</v>
+        <v>98.67586454040494</v>
       </c>
       <c r="F17" t="n">
-        <v>46.58355711629829</v>
+        <v>101.2490593083677</v>
       </c>
       <c r="G17" t="n">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H17" t="n">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="I17" t="n">
-        <v>1.197295977555172</v>
+        <v>0.9745854945661695</v>
       </c>
     </row>
     <row r="18">
@@ -951,28 +951,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9228182101773043</v>
+        <v>0.9867608190119118</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
-        <v>73.32638322655795</v>
+        <v>96.87046632124353</v>
       </c>
       <c r="F18" t="n">
-        <v>54.58929226255959</v>
+        <v>163.279792746114</v>
       </c>
       <c r="G18" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H18" t="n">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="I18" t="n">
-        <v>1.343237477303755</v>
+        <v>0.5932789642369816</v>
       </c>
     </row>
     <row r="19">
@@ -980,28 +980,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9662947767804431</v>
+        <v>0.9659182767678813</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>87.80095693779904</v>
+        <v>96.34232365145228</v>
       </c>
       <c r="F19" t="n">
-        <v>83.7116212338594</v>
+        <v>86.86358921161826</v>
       </c>
       <c r="G19" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H19" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I19" t="n">
-        <v>1.048850274832398</v>
+        <v>1.109122067437736</v>
       </c>
     </row>
     <row r="20">
@@ -1009,28 +1009,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8322663050057779</v>
+        <v>0.9358562873286332</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
         <v>31</v>
       </c>
       <c r="E20" t="n">
-        <v>53.48087183562266</v>
+        <v>81.13432835820896</v>
       </c>
       <c r="F20" t="n">
-        <v>46.40310182063385</v>
+        <v>73.9870330348873</v>
       </c>
       <c r="G20" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H20" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I20" t="n">
-        <v>1.152527950444933</v>
+        <v>1.096601999433488</v>
       </c>
     </row>
     <row r="21">
@@ -1038,28 +1038,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9011550256534614</v>
+        <v>0.9524587065983569</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D21" t="n">
         <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>58.5003875217981</v>
+        <v>96.97176791277259</v>
       </c>
       <c r="F21" t="n">
-        <v>52.61601031643686</v>
+        <v>97.71767912772586</v>
       </c>
       <c r="G21" t="n">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="H21" t="n">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="I21" t="n">
-        <v>1.111836248510142</v>
+        <v>0.9923666707845333</v>
       </c>
     </row>
     <row r="22">
@@ -1067,28 +1067,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8912563557113035</v>
+        <v>0.9206048077364974</v>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
         <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>57.30642591609134</v>
+        <v>91.38336811687269</v>
       </c>
       <c r="F22" t="n">
-        <v>51.12974626597084</v>
+        <v>65.10497512437811</v>
       </c>
       <c r="G22" t="n">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="H22" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I22" t="n">
-        <v>1.120804034856542</v>
+        <v>1.403631104109812</v>
       </c>
     </row>
     <row r="23">
@@ -1096,28 +1096,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9173982385331871</v>
+        <v>0.9495163837674729</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
-        <v>65.15950128976785</v>
+        <v>87.7850699844479</v>
       </c>
       <c r="F23" t="n">
-        <v>56.55908745247148</v>
+        <v>87.91242806035153</v>
       </c>
       <c r="G23" t="n">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="H23" t="n">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="I23" t="n">
-        <v>1.15206068953152</v>
+        <v>0.9985513074918577</v>
       </c>
     </row>
     <row r="24">
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9054610017515469</v>
+        <v>0.9425885453740329</v>
       </c>
       <c r="C24" t="n">
         <v>31</v>
@@ -1134,19 +1134,19 @@
         <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>76.17091406908172</v>
+        <v>89.03605354058722</v>
       </c>
       <c r="F24" t="n">
-        <v>53.09747048903878</v>
+        <v>67.43457084100011</v>
       </c>
       <c r="G24" t="n">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="H24" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I24" t="n">
-        <v>1.43454882817452</v>
+        <v>1.320332470870467</v>
       </c>
     </row>
     <row r="25">
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9049038587013478</v>
+        <v>0.9747712882766146</v>
       </c>
       <c r="C25" t="n">
         <v>31</v>
@@ -1163,19 +1163,19 @@
         <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>57.77622739018088</v>
+        <v>109.2885198786524</v>
       </c>
       <c r="F25" t="n">
-        <v>54.63882106731776</v>
+        <v>97.74397061172337</v>
       </c>
       <c r="G25" t="n">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="H25" t="n">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="I25" t="n">
-        <v>1.057420827565033</v>
+        <v>1.118110091033527</v>
       </c>
     </row>
     <row r="26">
@@ -1183,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8698677924551522</v>
+        <v>0.9470547247612856</v>
       </c>
       <c r="C26" t="n">
         <v>31</v>
@@ -1192,19 +1192,19 @@
         <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>64.57545045045045</v>
+        <v>86.54968287526427</v>
       </c>
       <c r="F26" t="n">
-        <v>48.28400361500226</v>
+        <v>69.05057724024189</v>
       </c>
       <c r="G26" t="n">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="H26" t="n">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I26" t="n">
-        <v>1.337408781702317</v>
+        <v>1.253424465578893</v>
       </c>
     </row>
     <row r="27">
@@ -1212,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8849851670784212</v>
+        <v>0.9641665334670648</v>
       </c>
       <c r="C27" t="n">
         <v>31</v>
@@ -1221,19 +1221,19 @@
         <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>58.8799417394923</v>
+        <v>94.48888888888889</v>
       </c>
       <c r="F27" t="n">
-        <v>49.9331231704571</v>
+        <v>126.1657824933687</v>
       </c>
       <c r="G27" t="n">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="H27" t="n">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="I27" t="n">
-        <v>1.179176025871512</v>
+        <v>0.7489264285572458</v>
       </c>
     </row>
     <row r="28">
@@ -1241,28 +1241,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7346618718997336</v>
+        <v>0.9209463306073213</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>52.30255067182874</v>
+        <v>97.65822038892162</v>
       </c>
       <c r="F28" t="n">
-        <v>43.45526554992858</v>
+        <v>62.50693093385214</v>
       </c>
       <c r="G28" t="n">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I28" t="n">
-        <v>1.20359523776779</v>
+        <v>1.562358268593738</v>
       </c>
     </row>
     <row r="29">
@@ -1270,28 +1270,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7441857941246126</v>
+        <v>0.9537570843251904</v>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
         <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>53.36741524508746</v>
+        <v>101.9094587759231</v>
       </c>
       <c r="F29" t="n">
-        <v>43.61079836233368</v>
+        <v>71.10979075174373</v>
       </c>
       <c r="G29" t="n">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="H29" t="n">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="I29" t="n">
-        <v>1.223720208047842</v>
+        <v>1.433128373724319</v>
       </c>
     </row>
     <row r="30">
@@ -1299,28 +1299,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9046375221331014</v>
+        <v>0.9562417315643342</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>48.99773389446423</v>
+        <v>94.39188281965212</v>
       </c>
       <c r="F30" t="n">
-        <v>64.20121072355145</v>
+        <v>76.10255624348679</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="H30" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7631901850799518</v>
+        <v>1.240324733871612</v>
       </c>
     </row>
     <row r="31">
@@ -1328,28 +1328,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9308697599453477</v>
+        <v>0.9261673207066909</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>71.48108005324207</v>
+        <v>86.78401022436807</v>
       </c>
       <c r="F31" t="n">
-        <v>66.00570482149429</v>
+        <v>62.18323262839879</v>
       </c>
       <c r="G31" t="n">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="H31" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="I31" t="n">
-        <v>1.082953060596131</v>
+        <v>1.395617541194444</v>
       </c>
     </row>
     <row r="32">
@@ -1357,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.836780667168223</v>
+        <v>0.9425844374936058</v>
       </c>
       <c r="C32" t="n">
         <v>31</v>
@@ -1366,19 +1366,19 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>47.18582656187558</v>
+        <v>104.7576427837902</v>
       </c>
       <c r="F32" t="n">
-        <v>49.15913921360255</v>
+        <v>93.46782199773578</v>
       </c>
       <c r="G32" t="n">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="H32" t="n">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9598586817569632</v>
+        <v>1.120788315644371</v>
       </c>
     </row>
     <row r="33">
@@ -1386,28 +1386,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9606740194008278</v>
+        <v>0.8193471172626473</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>63.53372566772295</v>
+        <v>87.11304580766139</v>
       </c>
       <c r="F33" t="n">
-        <v>172.3491175204477</v>
+        <v>59.07152361942781</v>
       </c>
       <c r="G33" t="n">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="H33" t="n">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3686338902210233</v>
+        <v>1.474704569479077</v>
       </c>
     </row>
     <row r="34">
@@ -1415,28 +1415,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8471515786778218</v>
+        <v>0.9702904651649812</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
-        <v>52.91564260112647</v>
+        <v>120.3639203436158</v>
       </c>
       <c r="F34" t="n">
-        <v>48.41509179265659</v>
+        <v>92.25288029681703</v>
       </c>
       <c r="G34" t="n">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="H34" t="n">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="I34" t="n">
-        <v>1.092957601479804</v>
+        <v>1.304717207271507</v>
       </c>
     </row>
     <row r="35">
@@ -1444,7 +1444,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8678986683185472</v>
+        <v>0.9623243886936969</v>
       </c>
       <c r="C35" t="n">
         <v>31</v>
@@ -1453,19 +1453,19 @@
         <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>48.36938296445339</v>
+        <v>95.04185116411941</v>
       </c>
       <c r="F35" t="n">
-        <v>56.65500231231694</v>
+        <v>77.48948046371834</v>
       </c>
       <c r="G35" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="H35" t="n">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8537530842874533</v>
+        <v>1.226512948536535</v>
       </c>
     </row>
     <row r="36">
@@ -1473,28 +1473,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9999999999999535</v>
+        <v>0.8862973868074518</v>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>44</v>
+        <v>96.92938620315046</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>53.59930555555555</v>
       </c>
       <c r="G36" t="n">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>0.88</v>
+        <v>1.808407500777848</v>
       </c>
     </row>
     <row r="37">
@@ -1502,28 +1502,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9260179805223749</v>
+        <v>0.9473883987996936</v>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D37" t="n">
         <v>31</v>
       </c>
       <c r="E37" t="n">
-        <v>56.91790193842645</v>
+        <v>108.7106545961003</v>
       </c>
       <c r="F37" t="n">
-        <v>77.70017513134852</v>
+        <v>68.5044014084507</v>
       </c>
       <c r="G37" t="n">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="H37" t="n">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7325324793954376</v>
+        <v>1.586914889569267</v>
       </c>
     </row>
     <row r="38">
@@ -1531,28 +1531,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9499587027654079</v>
+        <v>0.9299824391608675</v>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E38" t="n">
-        <v>83.38903531892461</v>
+        <v>105.1309571485783</v>
       </c>
       <c r="F38" t="n">
-        <v>241.4311594202898</v>
+        <v>58.72586495535715</v>
       </c>
       <c r="G38" t="n">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="H38" t="n">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3453946686879747</v>
+        <v>1.790198530553749</v>
       </c>
     </row>
     <row r="39">
@@ -1560,28 +1560,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9272212860353498</v>
+        <v>0.9704829306919484</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E39" t="n">
-        <v>50.68679775280899</v>
+        <v>114.4383368569415</v>
       </c>
       <c r="F39" t="n">
-        <v>81.62953020134228</v>
+        <v>86.87964757709251</v>
       </c>
       <c r="G39" t="n">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="H39" t="n">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6209370264386933</v>
+        <v>1.317205353018897</v>
       </c>
     </row>
     <row r="40">
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8604832802815414</v>
+        <v>0.7988278288597076</v>
       </c>
       <c r="C40" t="n">
         <v>31</v>
@@ -1598,19 +1598,19 @@
         <v>31</v>
       </c>
       <c r="E40" t="n">
-        <v>53.28201361997596</v>
+        <v>65.77538380691415</v>
       </c>
       <c r="F40" t="n">
-        <v>49.76870175438597</v>
+        <v>73.38550695923523</v>
       </c>
       <c r="G40" t="n">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="H40" t="n">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="I40" t="n">
-        <v>1.070592797114311</v>
+        <v>0.8962993720742651</v>
       </c>
     </row>
     <row r="41">
@@ -1618,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8461039596366769</v>
+        <v>0.9483570625172799</v>
       </c>
       <c r="C41" t="n">
         <v>31</v>
@@ -1627,19 +1627,19 @@
         <v>31</v>
       </c>
       <c r="E41" t="n">
-        <v>49.23567551266586</v>
+        <v>110.7403805136081</v>
       </c>
       <c r="F41" t="n">
-        <v>51.90487706569932</v>
+        <v>79.94332690364655</v>
       </c>
       <c r="G41" t="n">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="H41" t="n">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9485751300469343</v>
+        <v>1.385236076640647</v>
       </c>
     </row>
     <row r="42">
@@ -1647,28 +1647,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9138128069080508</v>
+        <v>0.9633039202246012</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
         <v>31</v>
       </c>
       <c r="E42" t="n">
-        <v>55.7625042149039</v>
+        <v>116.0836550836551</v>
       </c>
       <c r="F42" t="n">
-        <v>69.55932754880695</v>
+        <v>67.5412017167382</v>
       </c>
       <c r="G42" t="n">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H42" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8016538713054352</v>
+        <v>1.718708760476303</v>
       </c>
     </row>
     <row r="43">
@@ -1676,28 +1676,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.910606214049122</v>
+        <v>0.9550584124132389</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E43" t="n">
-        <v>51.68553518852693</v>
+        <v>98.87603878116343</v>
       </c>
       <c r="F43" t="n">
-        <v>68.3827479338843</v>
+        <v>77.06865464632455</v>
       </c>
       <c r="G43" t="n">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="H43" t="n">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I43" t="n">
-        <v>0.755827116489951</v>
+        <v>1.282960488085786</v>
       </c>
     </row>
     <row r="44">
@@ -1705,28 +1705,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8561198953865549</v>
+        <v>0.9882146549531035</v>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E44" t="n">
-        <v>52.8035034272658</v>
+        <v>136.4985507246377</v>
       </c>
       <c r="F44" t="n">
-        <v>63.21949163532616</v>
+        <v>82.24927536231884</v>
       </c>
       <c r="G44" t="n">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="H44" t="n">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8352408736826974</v>
+        <v>1.659571468846913</v>
       </c>
     </row>
     <row r="45">
@@ -1734,28 +1734,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8891854410356151</v>
+        <v>0.965326327802991</v>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E45" t="n">
-        <v>48.60324483775811</v>
+        <v>102.7628755364807</v>
       </c>
       <c r="F45" t="n">
-        <v>75.96078431372548</v>
+        <v>100.0007153075823</v>
       </c>
       <c r="G45" t="n">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="H45" t="n">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6398465376163304</v>
+        <v>1.027621404710982</v>
       </c>
     </row>
     <row r="46">
@@ -1763,28 +1763,86 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9064841600638086</v>
+        <v>0.9540210115235211</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E46" t="n">
-        <v>51.72350230414747</v>
+        <v>113.1123689727463</v>
       </c>
       <c r="F46" t="n">
-        <v>78.0691056910569</v>
+        <v>75.69860700717602</v>
       </c>
       <c r="G46" t="n">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="H46" t="n">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6625348381577859</v>
+        <v>1.494246373146914</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9178975602020767</v>
+      </c>
+      <c r="C47" t="n">
+        <v>38</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32</v>
+      </c>
+      <c r="E47" t="n">
+        <v>107.7070907886017</v>
+      </c>
+      <c r="F47" t="n">
+        <v>81.2544731610338</v>
+      </c>
+      <c r="G47" t="n">
+        <v>235</v>
+      </c>
+      <c r="H47" t="n">
+        <v>156</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.325552755417452</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9807206464345768</v>
+      </c>
+      <c r="C48" t="n">
+        <v>49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>32</v>
+      </c>
+      <c r="E48" t="n">
+        <v>104.4476262245667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>79.2948717948718</v>
+      </c>
+      <c r="G48" t="n">
+        <v>205</v>
+      </c>
+      <c r="H48" t="n">
+        <v>135</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.317205310511916</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1828,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3058693</v>
+        <v>3112842</v>
       </c>
       <c r="C2" t="n">
-        <v>901.7146303993242</v>
+        <v>913.3260946106484</v>
       </c>
       <c r="D2" t="n">
-        <v>928.8654111412947</v>
+        <v>929.3927616628149</v>
       </c>
     </row>
     <row r="3">
@@ -1842,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7252</v>
+        <v>2123</v>
       </c>
       <c r="C3" t="n">
-        <v>56.54412575841148</v>
+        <v>16.38294865756006</v>
       </c>
       <c r="D3" t="n">
-        <v>56.69704908990623</v>
+        <v>41.80829015544042</v>
       </c>
     </row>
     <row r="4">
@@ -1856,13 +1914,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1111</v>
+        <v>11624</v>
       </c>
       <c r="C4" t="n">
-        <v>10.96759675967597</v>
+        <v>58.64194769442533</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75787578757876</v>
+        <v>64.24328974535445</v>
       </c>
     </row>
     <row r="5">
@@ -1870,13 +1928,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9659</v>
+        <v>9328</v>
       </c>
       <c r="C5" t="n">
-        <v>49.40739206957242</v>
+        <v>57.74753430531732</v>
       </c>
       <c r="D5" t="n">
-        <v>66.22424681644063</v>
+        <v>52.14772727272727</v>
       </c>
     </row>
     <row r="6">
@@ -1884,13 +1942,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9798</v>
+        <v>3527</v>
       </c>
       <c r="C6" t="n">
-        <v>43.73351704429476</v>
+        <v>35.48709951800397</v>
       </c>
       <c r="D6" t="n">
-        <v>67.20055113288426</v>
+        <v>27.39977317833853</v>
       </c>
     </row>
     <row r="7">
@@ -1898,13 +1956,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7377</v>
+        <v>2899</v>
       </c>
       <c r="C7" t="n">
-        <v>46.3268266232886</v>
+        <v>32.07312866505691</v>
       </c>
       <c r="D7" t="n">
-        <v>57.13379422529484</v>
+        <v>42.10865815798551</v>
       </c>
     </row>
     <row r="8">
@@ -1912,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5466</v>
+        <v>6695</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02067325283571</v>
+        <v>49.13472740851382</v>
       </c>
       <c r="D8" t="n">
-        <v>41.98719356019027</v>
+        <v>43.60941000746826</v>
       </c>
     </row>
     <row r="9">
@@ -1926,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7964</v>
+        <v>4625</v>
       </c>
       <c r="C9" t="n">
-        <v>40.79897036664993</v>
+        <v>39.55545945945946</v>
       </c>
       <c r="D9" t="n">
-        <v>60.45781014565545</v>
+        <v>35.41643243243243</v>
       </c>
     </row>
     <row r="10">
@@ -1940,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>3905</v>
       </c>
       <c r="C10" t="n">
-        <v>5.5</v>
+        <v>40.82483994878361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>34.71728553137004</v>
       </c>
     </row>
     <row r="11">
@@ -1954,13 +2012,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>410</v>
+        <v>3343</v>
       </c>
       <c r="C11" t="n">
-        <v>16.68536585365853</v>
+        <v>32.48758600059826</v>
       </c>
       <c r="D11" t="n">
-        <v>6.15609756097561</v>
+        <v>33.08794495961711</v>
       </c>
     </row>
     <row r="12">
@@ -1968,13 +2026,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8372</v>
+        <v>5745</v>
       </c>
       <c r="C12" t="n">
-        <v>53.56581462016245</v>
+        <v>46.74795474325501</v>
       </c>
       <c r="D12" t="n">
-        <v>55.51098901098901</v>
+        <v>35.49782419495213</v>
       </c>
     </row>
     <row r="13">
@@ -1982,13 +2040,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8916</v>
+        <v>10396</v>
       </c>
       <c r="C13" t="n">
-        <v>63.7790489008524</v>
+        <v>53.97922277799154</v>
       </c>
       <c r="D13" t="n">
-        <v>52.94952893674294</v>
+        <v>64.2605809926895</v>
       </c>
     </row>
     <row r="14">
@@ -1996,13 +2054,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2001</v>
+        <v>2144</v>
       </c>
       <c r="C14" t="n">
-        <v>26.55822088955522</v>
+        <v>36.47061567164179</v>
       </c>
       <c r="D14" t="n">
-        <v>21.60919540229885</v>
+        <v>16.30410447761194</v>
       </c>
     </row>
     <row r="15">
@@ -2010,13 +2068,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3284</v>
+        <v>5921</v>
       </c>
       <c r="C15" t="n">
-        <v>21.17691839220463</v>
+        <v>35.32207397399088</v>
       </c>
       <c r="D15" t="n">
-        <v>68.14981729598051</v>
+        <v>49.89714575240669</v>
       </c>
     </row>
     <row r="16">
@@ -2024,13 +2082,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15299</v>
+        <v>3315</v>
       </c>
       <c r="C16" t="n">
-        <v>95.37741028825414</v>
+        <v>41.21870286576169</v>
       </c>
       <c r="D16" t="n">
-        <v>64.29688214916007</v>
+        <v>26.71553544494721</v>
       </c>
     </row>
     <row r="17">
@@ -2038,13 +2096,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12214</v>
+        <v>5581</v>
       </c>
       <c r="C17" t="n">
-        <v>63.71630915343049</v>
+        <v>38.23364988353342</v>
       </c>
       <c r="D17" t="n">
-        <v>60.19665957098412</v>
+        <v>46.57301558860419</v>
       </c>
     </row>
     <row r="18">
@@ -2052,13 +2110,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8716</v>
+        <v>386</v>
       </c>
       <c r="C18" t="n">
-        <v>54.01273519963286</v>
+        <v>16.5</v>
       </c>
       <c r="D18" t="n">
-        <v>50.81539697108766</v>
+        <v>5.72279792746114</v>
       </c>
     </row>
     <row r="19">
@@ -2066,13 +2124,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2146</v>
+        <v>3856</v>
       </c>
       <c r="C19" t="n">
-        <v>38.7381174277726</v>
+        <v>38.0746887966805</v>
       </c>
       <c r="D19" t="n">
-        <v>39.57642124883504</v>
+        <v>27.35451244813278</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2138,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9710</v>
+        <v>3283</v>
       </c>
       <c r="C20" t="n">
-        <v>47.50823892893924</v>
+        <v>48.09594882729211</v>
       </c>
       <c r="D20" t="n">
-        <v>61.5005149330587</v>
+        <v>21.05117270788913</v>
       </c>
     </row>
     <row r="21">
@@ -2094,13 +2152,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10915</v>
+        <v>5136</v>
       </c>
       <c r="C21" t="n">
-        <v>57.80907008703619</v>
+        <v>40.77570093457944</v>
       </c>
       <c r="D21" t="n">
-        <v>66.64086120018324</v>
+        <v>43.13668224299065</v>
       </c>
     </row>
     <row r="22">
@@ -2108,13 +2166,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6355</v>
+        <v>6229</v>
       </c>
       <c r="C22" t="n">
-        <v>39.87332808811959</v>
+        <v>38.27516455289773</v>
       </c>
       <c r="D22" t="n">
-        <v>60.71046420141621</v>
+        <v>57.84331353347247</v>
       </c>
     </row>
     <row r="23">
@@ -2122,13 +2180,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7335</v>
+        <v>6430</v>
       </c>
       <c r="C23" t="n">
-        <v>42.09161554192229</v>
+        <v>38.42208398133748</v>
       </c>
       <c r="D23" t="n">
-        <v>55.94342194955692</v>
+        <v>48.89440124416797</v>
       </c>
     </row>
     <row r="24">
@@ -2136,13 +2194,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9712</v>
+        <v>9272</v>
       </c>
       <c r="C24" t="n">
-        <v>51.21365321252059</v>
+        <v>59.62834339948231</v>
       </c>
       <c r="D24" t="n">
-        <v>54.6579489291598</v>
+        <v>52.3303494391717</v>
       </c>
     </row>
     <row r="25">
@@ -2150,13 +2208,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6292</v>
+        <v>6266</v>
       </c>
       <c r="C25" t="n">
-        <v>43.52352193261284</v>
+        <v>50.55952760932014</v>
       </c>
       <c r="D25" t="n">
-        <v>50.41163382072473</v>
+        <v>43.81423555697415</v>
       </c>
     </row>
     <row r="26">
@@ -2164,13 +2222,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10974</v>
+        <v>3788</v>
       </c>
       <c r="C26" t="n">
-        <v>54.54364862402041</v>
+        <v>89.6272439281943</v>
       </c>
       <c r="D26" t="n">
-        <v>64.95780936759614</v>
+        <v>15.15258711721225</v>
       </c>
     </row>
     <row r="27">
@@ -2178,13 +2236,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10771</v>
+        <v>766</v>
       </c>
       <c r="C27" t="n">
-        <v>49.19431807631604</v>
+        <v>17.7532637075718</v>
       </c>
       <c r="D27" t="n">
-        <v>63.96397734657878</v>
+        <v>10.86161879895561</v>
       </c>
     </row>
     <row r="28">
@@ -2192,13 +2250,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10989</v>
+        <v>8485</v>
       </c>
       <c r="C28" t="n">
-        <v>75.66102466102465</v>
+        <v>58.66847377725398</v>
       </c>
       <c r="D28" t="n">
-        <v>47.52152152152152</v>
+        <v>43.88308780200354</v>
       </c>
     </row>
     <row r="29">
@@ -2206,13 +2264,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11140</v>
+        <v>3954</v>
       </c>
       <c r="C29" t="n">
-        <v>52.39021543985638</v>
+        <v>49.41122913505311</v>
       </c>
       <c r="D29" t="n">
-        <v>61.44533213644524</v>
+        <v>28.15553869499241</v>
       </c>
     </row>
     <row r="30">
@@ -2220,13 +2278,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3665</v>
+        <v>16385</v>
       </c>
       <c r="C30" t="n">
-        <v>51.69604365620737</v>
+        <v>73.08593225511139</v>
       </c>
       <c r="D30" t="n">
-        <v>18.51323328785812</v>
+        <v>108.5991455599634</v>
       </c>
     </row>
     <row r="31">
@@ -2234,13 +2292,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11321</v>
+        <v>7042</v>
       </c>
       <c r="C31" t="n">
-        <v>50.10211112092571</v>
+        <v>53.4021584777052</v>
       </c>
       <c r="D31" t="n">
-        <v>74.78031975973853</v>
+        <v>53.0782448168134</v>
       </c>
     </row>
     <row r="32">
@@ -2248,13 +2306,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9226</v>
+        <v>12730</v>
       </c>
       <c r="C32" t="n">
-        <v>68.15304574029915</v>
+        <v>76.55695208169678</v>
       </c>
       <c r="D32" t="n">
-        <v>60.07717320615652</v>
+        <v>74.04783974862529</v>
       </c>
     </row>
     <row r="33">
@@ -2262,13 +2320,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2323</v>
+        <v>3736</v>
       </c>
       <c r="C33" t="n">
-        <v>19.57081360309944</v>
+        <v>30.26632762312634</v>
       </c>
       <c r="D33" t="n">
-        <v>33.49289711579853</v>
+        <v>36.23741970021413</v>
       </c>
     </row>
     <row r="34">
@@ -2276,13 +2334,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9525</v>
+        <v>5122</v>
       </c>
       <c r="C34" t="n">
-        <v>57.28083989501312</v>
+        <v>31.4113627489262</v>
       </c>
       <c r="D34" t="n">
-        <v>45.07601049868767</v>
+        <v>57.67278406872315</v>
       </c>
     </row>
     <row r="35">
@@ -2290,13 +2348,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7188</v>
+        <v>7002</v>
       </c>
       <c r="C35" t="n">
-        <v>48.89663327768503</v>
+        <v>51.67023707512139</v>
       </c>
       <c r="D35" t="n">
-        <v>63.29465776293823</v>
+        <v>56.7460725506998</v>
       </c>
     </row>
     <row r="36">
@@ -2304,13 +2362,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3682</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>41.59342748506246</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>29.05784899511135</v>
       </c>
     </row>
     <row r="37">
@@ -2318,13 +2376,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8836</v>
+        <v>5744</v>
       </c>
       <c r="C37" t="n">
-        <v>48.10117700316886</v>
+        <v>48.69811977715877</v>
       </c>
       <c r="D37" t="n">
-        <v>57.23200543232232</v>
+        <v>44.90529247910864</v>
       </c>
     </row>
     <row r="38">
@@ -2332,13 +2390,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1932</v>
+        <v>7491</v>
       </c>
       <c r="C38" t="n">
-        <v>26.8167701863354</v>
+        <v>52.99078894673608</v>
       </c>
       <c r="D38" t="n">
-        <v>20.38302277432712</v>
+        <v>46.13629688960086</v>
       </c>
     </row>
     <row r="39">
@@ -2346,13 +2404,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>779</v>
+        <v>5676</v>
       </c>
       <c r="C39" t="n">
-        <v>13.87291399229782</v>
+        <v>43.14147286821706</v>
       </c>
       <c r="D39" t="n">
-        <v>12.16431322207959</v>
+        <v>43.84566596194503</v>
       </c>
     </row>
     <row r="40">
@@ -2360,13 +2418,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8941</v>
+        <v>27317</v>
       </c>
       <c r="C40" t="n">
-        <v>68.56246504865227</v>
+        <v>100.0460153018267</v>
       </c>
       <c r="D40" t="n">
-        <v>43.26249860194609</v>
+        <v>102.3433027052751</v>
       </c>
     </row>
     <row r="41">
@@ -2374,13 +2432,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8392</v>
+        <v>12316</v>
       </c>
       <c r="C41" t="n">
-        <v>71.97235462345091</v>
+        <v>91.53832413121144</v>
       </c>
       <c r="D41" t="n">
-        <v>33.56041468064824</v>
+        <v>96.81690483923352</v>
       </c>
     </row>
     <row r="42">
@@ -2388,13 +2446,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9440</v>
+        <v>2331</v>
       </c>
       <c r="C42" t="n">
-        <v>65.54692796610169</v>
+        <v>38.87430287430288</v>
       </c>
       <c r="D42" t="n">
-        <v>49.31906779661017</v>
+        <v>25.73659373659374</v>
       </c>
     </row>
     <row r="43">
@@ -2402,13 +2460,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12036</v>
+        <v>1444</v>
       </c>
       <c r="C43" t="n">
-        <v>62.93170488534397</v>
+        <v>10.34002770083102</v>
       </c>
       <c r="D43" t="n">
-        <v>59.38567630442007</v>
+        <v>39.02493074792244</v>
       </c>
     </row>
     <row r="44">
@@ -2416,13 +2474,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16573</v>
+        <v>345</v>
       </c>
       <c r="C44" t="n">
-        <v>143.264043926869</v>
+        <v>18.79130434782609</v>
       </c>
       <c r="D44" t="n">
-        <v>62.58317745731009</v>
+        <v>4.063768115942029</v>
       </c>
     </row>
     <row r="45">
@@ -2430,13 +2488,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4925</v>
+        <v>2796</v>
       </c>
       <c r="C45" t="n">
-        <v>64.62395939086295</v>
+        <v>31.22246065808298</v>
       </c>
       <c r="D45" t="n">
-        <v>19.86761421319797</v>
+        <v>27.31258941344778</v>
       </c>
     </row>
     <row r="46">
@@ -2444,13 +2502,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>246</v>
+        <v>2385</v>
       </c>
       <c r="C46" t="n">
-        <v>3.630081300813008</v>
+        <v>26.46498951781971</v>
       </c>
       <c r="D46" t="n">
-        <v>15.39024390243902</v>
+        <v>27.18197064989518</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1509</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14.85619615639496</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28.68853545394301</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1327</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13.34664657121326</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.71514694800302</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2495,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52.14759044478774</v>
+        <v>88.89898245423748</v>
       </c>
       <c r="C2" t="n">
-        <v>72.34029664738026</v>
+        <v>67.22896350939035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8483257648161142</v>
+        <v>0.9460724132833053</v>
       </c>
       <c r="E2" t="n">
-        <v>1.209851992849269</v>
+        <v>0.7138508977565815</v>
       </c>
     </row>
     <row r="3">
@@ -2512,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.38903531892461</v>
+        <v>98.89934473278893</v>
       </c>
       <c r="C3" t="n">
-        <v>241.4311594202899</v>
+        <v>99.58893961151786</v>
       </c>
       <c r="D3" t="n">
-        <v>1.356554858255688</v>
+        <v>1.05249733079512</v>
       </c>
       <c r="E3" t="n">
-        <v>4.037804417423898</v>
+        <v>1.057455748791637</v>
       </c>
     </row>
     <row r="4">
@@ -2529,16 +2615,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.41296376210359</v>
+        <v>98.33383331235285</v>
       </c>
       <c r="C4" t="n">
-        <v>49.36832741324889</v>
+        <v>146.3546241754117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8526428007607013</v>
+        <v>1.046479098195589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8256583408234802</v>
+        <v>1.554023361431891</v>
       </c>
     </row>
     <row r="5">
@@ -2546,16 +2632,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>63.53372566772295</v>
+        <v>112.0807346965054</v>
       </c>
       <c r="C5" t="n">
-        <v>172.3491175204477</v>
+        <v>78.34519369329216</v>
       </c>
       <c r="D5" t="n">
-        <v>1.033552959187118</v>
+        <v>1.192775082791</v>
       </c>
       <c r="E5" t="n">
-        <v>2.882444957536371</v>
+        <v>0.8318853055805059</v>
       </c>
     </row>
     <row r="6">
@@ -2563,33 +2649,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85.69152848368314</v>
+        <v>115.3851647292365</v>
       </c>
       <c r="C6" t="n">
-        <v>79.25496674002855</v>
+        <v>194.5510908225608</v>
       </c>
       <c r="D6" t="n">
-        <v>1.394011320928603</v>
+        <v>1.227941178164487</v>
       </c>
       <c r="E6" t="n">
-        <v>1.325496077532307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>69.05770451538048</v>
-      </c>
-      <c r="C7" t="n">
-        <v>56.06349521989549</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.123415856797481</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9376313695327146</v>
+        <v>2.065783311143995</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3594045000923394</v>
+        <v>0.304017425825779</v>
       </c>
     </row>
     <row r="3">
@@ -2643,7 +2712,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3594045000923394</v>
+        <v>0.304017425825779</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2695,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7804189432456681</v>
+        <v>0.8820354407213887</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -2706,7 +2775,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7804189432456681</v>
+        <v>0.8820354407213887</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2764,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2205983528749212</v>
+        <v>0.01361828266566389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.865056761770763</v>
+        <v>0.6281083005939635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3276793768402898</v>
+        <v>0.174914350084719</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2840,23 +2909,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.958400589164814</v>
+        <v>8.599575845793236</v>
       </c>
       <c r="C4" t="n">
-        <v>6.905227068515579</v>
+        <v>7.728064470587262</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>7.863579678203362</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.026772175983432</v>
+      </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2864,23 +2937,27 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5.142740024375096</v>
+        <v>4.769469690757452</v>
       </c>
       <c r="C6" t="n">
-        <v>4.387998028024129</v>
+        <v>17.25520858011092</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>10.27546970296942</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.536410238874049</v>
+      </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -2888,27 +2965,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1.867479972634049</v>
+        <v>4.400738376387331</v>
       </c>
       <c r="C8" t="n">
-        <v>9.677273492023229</v>
+        <v>9.317038519746783</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.183584014209976</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.042962404490209</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>14145.12872418958</v>
+        <v>21413.20154362034</v>
       </c>
     </row>
     <row r="3">
@@ -2950,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>9317.179881273787</v>
+        <v>12513.29828929122</v>
       </c>
     </row>
     <row r="4">
@@ -2958,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6458.113724535194</v>
+        <v>8869.899239379165</v>
       </c>
     </row>
     <row r="5">
@@ -2966,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3874.832807336868</v>
+        <v>6492.514047682552</v>
       </c>
     </row>
     <row r="6">
@@ -2974,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2464.350510949606</v>
+        <v>5387.722124649929</v>
       </c>
     </row>
     <row r="7">
@@ -2982,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1865.680441768666</v>
+        <v>4354.82790161032</v>
       </c>
     </row>
     <row r="8">
@@ -2990,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1585.227627739883</v>
+        <v>3524.227103717597</v>
       </c>
     </row>
     <row r="9">
@@ -2998,7 +3061,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1273.481527256973</v>
+        <v>3007.456563624961</v>
       </c>
     </row>
     <row r="10">
@@ -3006,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1031.849786925254</v>
+        <v>2496.109194124241</v>
       </c>
     </row>
     <row r="11">
@@ -3014,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>852.9104185406089</v>
+        <v>2305.458243519519</v>
       </c>
     </row>
     <row r="12">
@@ -3022,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>704.3563562367511</v>
+        <v>1837.565230050938</v>
       </c>
     </row>
     <row r="13">
@@ -3030,7 +3093,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>593.7281689729964</v>
+        <v>1612.909579485734</v>
       </c>
     </row>
     <row r="14">
@@ -3038,7 +3101,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>461.0909390473626</v>
+        <v>1448.83641418447</v>
       </c>
     </row>
     <row r="15">
@@ -3046,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>352.0585092568191</v>
+        <v>1279.307180862169</v>
       </c>
     </row>
   </sheetData>
